--- a/public/files/templates/Receivable_Report.xlsx
+++ b/public/files/templates/Receivable_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\idp\erp\printerp3\public\files\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D1BB4C-B98D-44F5-80E4-E4087FA4C5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E0B5E1-4A9C-470E-9B16-92901A72922F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Customer</t>
+  </si>
+  <si>
+    <t>Biller</t>
   </si>
 </sst>
 </file>
@@ -398,16 +401,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="18.5703125" customWidth="1"/>
+    <col min="1" max="13" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,38 +423,41 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
